--- a/event_entries/master_entry_list.xlsx
+++ b/event_entries/master_entry_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/event_entries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A62A1A5-3D17-474B-937F-291F2D51BFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B4058-E375-BA44-A91A-913FBD32082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -71,6 +71,54 @@
   </si>
   <si>
     <t>driver2nationality</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>GT World Challenge America</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ACI Motorsports</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Kaplan</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Acura NSX GT3 EVO22</t>
+  </si>
+  <si>
+    <t>Acura</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Povoledo</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>FULL SEASON ENTRY</t>
+  </si>
+  <si>
+    <t>2023-10-31T15:51:39Z</t>
   </si>
 </sst>
 </file>
@@ -137,11 +185,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -154,43 +205,57 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -221,20 +286,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -249,9 +300,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B01D373C-CE84-CB41-8469-935BCFA4883C}" name="Table1" displayName="Table1" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="18" dataDxfId="5" headerRowBorderDxfId="19" tableBorderDxfId="20">
-  <autoFilter ref="A1:Q29" xr:uid="{B01D373C-CE84-CB41-8469-935BCFA4883C}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B01D373C-CE84-CB41-8469-935BCFA4883C}" name="Table1" displayName="Table1" ref="A1:R29" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="A1:R29" xr:uid="{B01D373C-CE84-CB41-8469-935BCFA4883C}"/>
+  <tableColumns count="18">
     <tableColumn id="2" xr3:uid="{9D4CC407-6D67-A340-8089-19B58868D9A7}" name="event" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{35BB2554-1E08-A940-BE90-09B6CCFCA61D}" name="series" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{54FBBF3B-99AE-4E46-9C06-AD07DA1EDFA0}" name="class" dataDxfId="15"/>
@@ -263,12 +314,13 @@
     <tableColumn id="13" xr3:uid="{9E6EA411-1C26-E348-A70C-0D231E7102E4}" name="driver1category" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{F2433C2C-0E97-064A-A305-A22F5C9D4275}" name="driver2firstName" dataDxfId="8"/>
     <tableColumn id="15" xr3:uid="{C3546E40-6732-6342-B249-A27772588D5D}" name="driver2lastName" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{BB91C73D-A128-FF4D-B8FF-236C7F71C1E5}" name="driver2nationality" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{96C2D693-7536-9940-89BA-095E92127B61}" name="driver2category" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4528525D-2A9B-324B-992C-D5F8DDC549AF}" name="sponsors" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{BB91C73D-A128-FF4D-B8FF-236C7F71C1E5}" name="driver2nationality" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{96C2D693-7536-9940-89BA-095E92127B61}" name="driver2category" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{4528525D-2A9B-324B-992C-D5F8DDC549AF}" name="sponsors" dataDxfId="4"/>
     <tableColumn id="19" xr3:uid="{E4321B12-B2BF-1C46-BD44-F1260BA6B0CA}" name="car" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{A1245D9E-629C-9943-A939-C7069BF78302}" name="manufacturer" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{947C638F-A30B-6341-986C-7DAB9563F1BC}" name="id" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{A1245D9E-629C-9943-A939-C7069BF78302}" name="manufacturer" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{947C638F-A30B-6341-986C-7DAB9563F1BC}" name="id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{598775F1-8867-934F-83CD-EC13387A018D}" name="created" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,16 +611,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
@@ -579,9 +631,11 @@
     <col min="11" max="12" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,483 +687,91 @@
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>55666945</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1127,8 +789,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1146,8 +809,9 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1165,10 +829,11 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/event_entries/master_entry_list.xlsx
+++ b/event_entries/master_entry_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/event_entries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B4058-E375-BA44-A91A-913FBD32082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1EDD64-00AE-E541-A061-AE20FE84622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2023-10-31T15:51:39Z</t>
+  </si>
+  <si>
+    <t>Mobil1</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>25</v>
